--- a/data/trans_orig/P42C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Clase-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>121809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103588</v>
+        <v>104264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139129</v>
+        <v>138828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4296672545968502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3653953754350498</v>
+        <v>0.3677777645553469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4907614309392236</v>
+        <v>0.4896996152384984</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>161687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144367</v>
+        <v>144668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179908</v>
+        <v>179232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5703327454031497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5092385690607765</v>
+        <v>0.5103003847615016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6346046245649507</v>
+        <v>0.6322222354446532</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>116567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100642</v>
+        <v>98639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136526</v>
+        <v>134598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4128554504134912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3564509943934644</v>
+        <v>0.3493575325675902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4835449574231272</v>
+        <v>0.4767157191587424</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>165777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145818</v>
+        <v>147746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>181702</v>
+        <v>183705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5871445495865087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5164550425768726</v>
+        <v>0.5232842808412577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6435490056065355</v>
+        <v>0.6506424674324098</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>56867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45026</v>
+        <v>45420</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71895</v>
+        <v>72661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2641504364838101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2091485308968905</v>
+        <v>0.2109768225833426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3339537910390977</v>
+        <v>0.3375143088653195</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>158416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>143388</v>
+        <v>142622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170257</v>
+        <v>169863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7358495635161899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6660462089609023</v>
+        <v>0.6624856911346798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7908514691031094</v>
+        <v>0.7890231774166573</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>135138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115060</v>
+        <v>112974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160066</v>
+        <v>158063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2191431880438011</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1865844856863035</v>
+        <v>0.1832018975022416</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2595673672924189</v>
+        <v>0.2563186504454247</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>481528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456600</v>
+        <v>458603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501606</v>
+        <v>503692</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7808568119561988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7404326327075812</v>
+        <v>0.7436813495545752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8134155143136965</v>
+        <v>0.8167981024977584</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>93327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76648</v>
+        <v>76965</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113129</v>
+        <v>114712</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.156083300389963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1281895067782327</v>
+        <v>0.1287194215540021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1892015778924945</v>
+        <v>0.1918483188891732</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>504603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>484801</v>
+        <v>483218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>521282</v>
+        <v>520965</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.843916699610037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8107984221075055</v>
+        <v>0.8081516811108268</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8718104932217674</v>
+        <v>0.8712805784459979</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>130975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>110469</v>
+        <v>109963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153307</v>
+        <v>156104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1769638744816943</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1492579289562902</v>
+        <v>0.1485747311608759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2071374431259573</v>
+        <v>0.2109172321181565</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>609145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>586813</v>
+        <v>584016</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>629651</v>
+        <v>630157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8230361255183056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7928625568740426</v>
+        <v>0.7890827678818434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8507420710437097</v>
+        <v>0.8514252688391241</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>654683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>610650</v>
+        <v>602841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>704606</v>
+        <v>698622</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2392986946487168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2232039416368496</v>
+        <v>0.2203494523889021</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2575466860059473</v>
+        <v>0.2553594726202997</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>2081156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2031233</v>
+        <v>2037217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2125189</v>
+        <v>2132998</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7607013053512832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7424533139940522</v>
+        <v>0.7446405273797003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7767960583631504</v>
+        <v>0.779650547611098</v>
       </c>
     </row>
     <row r="24">
@@ -1380,19 +1380,19 @@
         <v>103761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86746</v>
+        <v>86903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120729</v>
+        <v>121296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3364005898848774</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2812367836879815</v>
+        <v>0.281745586160291</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3914120457423458</v>
+        <v>0.3932477569842079</v>
       </c>
     </row>
     <row r="5">
@@ -1409,19 +1409,19 @@
         <v>204685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>187717</v>
+        <v>187150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>221700</v>
+        <v>221543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6635994101151226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6085879542576539</v>
+        <v>0.6067522430157906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7187632163120182</v>
+        <v>0.7182544138397088</v>
       </c>
     </row>
     <row r="6">
@@ -1471,19 +1471,19 @@
         <v>92676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75475</v>
+        <v>75013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108979</v>
+        <v>109293</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2773518913090007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2258746270644797</v>
+        <v>0.2244911356137581</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3261441067381077</v>
+        <v>0.3270824076683177</v>
       </c>
     </row>
     <row r="8">
@@ -1500,19 +1500,19 @@
         <v>241469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>225166</v>
+        <v>224852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>258670</v>
+        <v>259132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7226481086909993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6738558932618924</v>
+        <v>0.6729175923316819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7741253729355203</v>
+        <v>0.7755088643862413</v>
       </c>
     </row>
     <row r="9">
@@ -1562,19 +1562,19 @@
         <v>15864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9208</v>
+        <v>9638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24913</v>
+        <v>23975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1118657999464695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06493307045776385</v>
+        <v>0.06796698390467777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1756786876937344</v>
+        <v>0.1690609920868152</v>
       </c>
     </row>
     <row r="11">
@@ -1591,19 +1591,19 @@
         <v>125947</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116898</v>
+        <v>117836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132603</v>
+        <v>132173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8881342000535305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8243213123062656</v>
+        <v>0.8309390079131845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9350669295422365</v>
+        <v>0.9320330160953222</v>
       </c>
     </row>
     <row r="12">
@@ -1653,19 +1653,19 @@
         <v>98542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79241</v>
+        <v>81710</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117878</v>
+        <v>115934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1430173340011754</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.115005747771488</v>
+        <v>0.1185882110259228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1710804323196422</v>
+        <v>0.1682587336413209</v>
       </c>
     </row>
     <row r="14">
@@ -1682,19 +1682,19 @@
         <v>590480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>571144</v>
+        <v>573088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609781</v>
+        <v>607312</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8569826659988246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8289195676803579</v>
+        <v>0.8317412663586791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.884994252228512</v>
+        <v>0.8814117889740772</v>
       </c>
     </row>
     <row r="15">
@@ -1744,19 +1744,19 @@
         <v>36950</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26536</v>
+        <v>26567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50182</v>
+        <v>51359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06508516014739085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04674177244613777</v>
+        <v>0.04679646882593954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08839407758284443</v>
+        <v>0.09046636642611543</v>
       </c>
     </row>
     <row r="17">
@@ -1773,19 +1773,19 @@
         <v>530761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>517529</v>
+        <v>516352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541175</v>
+        <v>541144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9349148398526091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9116059224171557</v>
+        <v>0.9095336335738846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9532582275538624</v>
+        <v>0.9532035311740605</v>
       </c>
     </row>
     <row r="18">
@@ -1835,19 +1835,19 @@
         <v>79415</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64050</v>
+        <v>63013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100271</v>
+        <v>98274</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1095897426004363</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0883858440218412</v>
+        <v>0.08695511740518902</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.138369620877886</v>
+        <v>0.1356141553223263</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>645243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>624387</v>
+        <v>626384</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>660608</v>
+        <v>661645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8904102573995637</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8616303791221143</v>
+        <v>0.864385844677674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.911614155978159</v>
+        <v>0.913044882594811</v>
       </c>
     </row>
     <row r="21">
@@ -1926,19 +1926,19 @@
         <v>427208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>387732</v>
+        <v>390572</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>465529</v>
+        <v>468752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1544612050450725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1401883282357789</v>
+        <v>0.1412151715908144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.168316532235345</v>
+        <v>0.1694818217860105</v>
       </c>
     </row>
     <row r="23">
@@ -1955,19 +1955,19 @@
         <v>2338585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2300264</v>
+        <v>2297041</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2378061</v>
+        <v>2375221</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8455387949549275</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.831683467764655</v>
+        <v>0.8305181782139894</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8598116717642211</v>
+        <v>0.8587848284091856</v>
       </c>
     </row>
     <row r="24">
@@ -2137,19 +2137,19 @@
         <v>136515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121880</v>
+        <v>121529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151233</v>
+        <v>151258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4589180034346908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4097221814594603</v>
+        <v>0.4085397564936228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5083962767321185</v>
+        <v>0.5084807544866231</v>
       </c>
     </row>
     <row r="5">
@@ -2166,19 +2166,19 @@
         <v>160956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146238</v>
+        <v>146213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175591</v>
+        <v>175942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5410819965653092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4916037232678816</v>
+        <v>0.4915192455133769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5902778185405397</v>
+        <v>0.591460243506377</v>
       </c>
     </row>
     <row r="6">
@@ -2228,19 +2228,19 @@
         <v>114253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101451</v>
+        <v>100147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127667</v>
+        <v>129024</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4298927841635445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3817247836450553</v>
+        <v>0.3768167887119027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4803651034700355</v>
+        <v>0.4854713098627513</v>
       </c>
     </row>
     <row r="8">
@@ -2257,19 +2257,19 @@
         <v>151517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>138103</v>
+        <v>136746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>164319</v>
+        <v>165623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5701072158364556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5196348965299644</v>
+        <v>0.5145286901372489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6182752163549446</v>
+        <v>0.6231832112880974</v>
       </c>
     </row>
     <row r="9">
@@ -2319,19 +2319,19 @@
         <v>23678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16871</v>
+        <v>17046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31236</v>
+        <v>32043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2254215286916854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1606113555763906</v>
+        <v>0.1622810105975298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2973722947605786</v>
+        <v>0.3050508968592143</v>
       </c>
     </row>
     <row r="11">
@@ -2348,19 +2348,19 @@
         <v>81362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73804</v>
+        <v>72997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88169</v>
+        <v>87994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7745784713083146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7026277052394216</v>
+        <v>0.6949491031407865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8393886444236095</v>
+        <v>0.83771898940247</v>
       </c>
     </row>
     <row r="12">
@@ -2410,19 +2410,19 @@
         <v>103191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87550</v>
+        <v>87270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122737</v>
+        <v>120088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2070564175748171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1756714939474546</v>
+        <v>0.1751099408686039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2462754313594288</v>
+        <v>0.2409599552701674</v>
       </c>
     </row>
     <row r="14">
@@ -2439,19 +2439,19 @@
         <v>395182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>375636</v>
+        <v>378285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>410823</v>
+        <v>411103</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7929435824251828</v>
+        <v>0.7929435824251829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7537245686405712</v>
+        <v>0.7590400447298327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8243285060525455</v>
+        <v>0.8248900591313961</v>
       </c>
     </row>
     <row r="15">
@@ -2501,19 +2501,19 @@
         <v>55292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68800</v>
+        <v>68870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1161071771498873</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09347573455123326</v>
+        <v>0.09272966944163394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1444722726723442</v>
+        <v>0.144618800071844</v>
       </c>
     </row>
     <row r="17">
@@ -2530,19 +2530,19 @@
         <v>420925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>407417</v>
+        <v>407347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>431702</v>
+        <v>432058</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8838928228501127</v>
+        <v>0.8838928228501126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8555277273276558</v>
+        <v>0.855381199928157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9065242654487667</v>
+        <v>0.9072703305583663</v>
       </c>
     </row>
     <row r="18">
@@ -2592,19 +2592,19 @@
         <v>57291</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45216</v>
+        <v>44151</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72519</v>
+        <v>71988</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1370406758421256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1081571888091394</v>
+        <v>0.1056108380684113</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1734678436862708</v>
+        <v>0.1721970884526039</v>
       </c>
     </row>
     <row r="20">
@@ -2621,19 +2621,19 @@
         <v>360764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>345536</v>
+        <v>346067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>372839</v>
+        <v>373904</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8629593241578745</v>
+        <v>0.8629593241578744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8265321563137294</v>
+        <v>0.8278029115473963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8918428111908608</v>
+        <v>0.8943891619315888</v>
       </c>
     </row>
     <row r="21">
@@ -2683,19 +2683,19 @@
         <v>490220</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>457114</v>
+        <v>454579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>525568</v>
+        <v>522896</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.237863878500106</v>
+        <v>0.2378638785001059</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2218003498865963</v>
+        <v>0.2205702043470066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.255015380303774</v>
+        <v>0.2537189205065439</v>
       </c>
     </row>
     <row r="23">
@@ -2712,19 +2712,19 @@
         <v>1570707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1535359</v>
+        <v>1538031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1603813</v>
+        <v>1606348</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7621361214998941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7449846196962261</v>
+        <v>0.7462810794934562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7781996501134036</v>
+        <v>0.7794297956529934</v>
       </c>
     </row>
     <row r="24">
